--- a/data/trans_orig/Q02D_LAB-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q02D_LAB-Habitat-trans_orig.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,12</t>
+          <t>2,89</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,65</t>
+          <t>4,66</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,65</t>
+          <t>6,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>6,46</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>3,03</t>
+          <t>4,63</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,48</t>
+          <t>6,65</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>8,67</t>
+          <t>7,93</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>10,38</t>
+          <t>8,38</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>3,42</t>
+          <t>3,98</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>5,54</t>
+          <t>5,85</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>7,32</t>
+          <t>7,07</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>8,15</t>
+          <t>7,57</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,5; 7,24</t>
+          <t>2,38; 3,65</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,28; 7,61</t>
+          <t>4,12; 5,26</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,48; 6,82</t>
+          <t>5,26; 6,98</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,98; 8,62</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,3; 4,36</t>
+          <t>4,06; 5,48</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,37; 6,81</t>
+          <t>6,2; 7,13</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,88; 10,43</t>
+          <t>7,13; 8,82</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,84; 14,72</t>
+          <t>7,15; 10,43</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,61; 4,69</t>
+          <t>3,55; 4,55</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>4,64; 6,57</t>
+          <t>5,46; 6,26</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>6,07; 9,11</t>
+          <t>6,52; 7,76</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,31; 12,85</t>
+          <t>6,53; 9,12</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,72</t>
+          <t>3,89</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,48</t>
+          <t>4,96</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>6,19</t>
+          <t>5,17</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>6,29</t>
+          <t>5,31</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>4,86</t>
+          <t>5,9</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>6,88</t>
+          <t>6,57</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>7,75</t>
+          <t>7,46</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>8,07</t>
+          <t>7,11</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>4,06</t>
+          <t>5,1</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>5,91</t>
+          <t>5,93</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>7,02</t>
+          <t>6,54</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>7,32</t>
+          <t>6,45</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,16; 3,55</t>
+          <t>3,28; 4,66</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,98; 5,15</t>
+          <t>4,56; 5,4</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,4; 7,24</t>
+          <t>4,65; 5,93</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,84; 8,34</t>
+          <t>4,24; 6,76</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,19; 5,69</t>
+          <t>5,34; 6,7</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,41; 7,42</t>
+          <t>6,21; 7,01</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,93; 8,8</t>
+          <t>6,87; 8,05</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,81; 10,22</t>
+          <t>6,4; 8,02</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,59; 4,67</t>
+          <t>4,64; 5,61</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>5,54; 6,35</t>
+          <t>5,63; 6,24</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>6,39; 7,74</t>
+          <t>6,1; 6,99</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>6,3; 8,69</t>
+          <t>5,77; 7,21</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,89</t>
+          <t>4,12</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,96</t>
+          <t>4,71</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,17</t>
+          <t>7,73</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,12</t>
+          <t>6,74</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>5,9</t>
+          <t>6,34</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>6,57</t>
+          <t>6,81</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>7,46</t>
+          <t>10,4</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>6,97</t>
+          <t>8,67</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>5,1</t>
+          <t>5,47</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>5,93</t>
+          <t>6,01</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>6,54</t>
+          <t>9,37</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>6,32</t>
+          <t>8,09</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,28; 4,66</t>
+          <t>3,53; 4,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,56; 5,4</t>
+          <t>4,26; 5,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,65; 5,93</t>
+          <t>6,83; 8,77</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,14; 6,48</t>
+          <t>4,18; 12,08</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,34; 6,7</t>
+          <t>5,62; 7,22</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,21; 7,01</t>
+          <t>6,38; 7,24</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,87; 8,05</t>
+          <t>9,57; 11,33</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,25; 7,88</t>
+          <t>7,37; 10,53</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,64; 5,61</t>
+          <t>4,99; 6,13</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>5,63; 6,24</t>
+          <t>5,71; 6,39</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6,1; 6,99</t>
+          <t>8,78; 10,02</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,65; 7,05</t>
+          <t>6,74; 9,97</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,12</t>
+          <t>3,51</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,71</t>
+          <t>4,5</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7,73</t>
+          <t>6,73</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,41</t>
+          <t>5,5</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>6,34</t>
+          <t>6,31</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>6,81</t>
+          <t>6,42</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>10,4</t>
+          <t>8,52</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>8,5</t>
+          <t>6,92</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>5,47</t>
+          <t>5,27</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>6,01</t>
+          <t>5,67</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>9,37</t>
+          <t>7,82</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>7,86</t>
+          <t>6,37</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,53; 4,91</t>
+          <t>3,04; 4,27</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,26; 5,15</t>
+          <t>4,06; 4,96</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,83; 8,77</t>
+          <t>5,96; 7,6</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,13; 11,22</t>
+          <t>4,36; 7,82</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,62; 7,22</t>
+          <t>5,61; 7,03</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,38; 7,24</t>
+          <t>6,04; 6,83</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>9,57; 11,33</t>
+          <t>7,78; 9,3</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,24; 10,31</t>
+          <t>5,88; 8,33</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,99; 6,13</t>
+          <t>4,82; 5,82</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>5,71; 6,39</t>
+          <t>5,36; 5,98</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>8,78; 10,02</t>
+          <t>7,27; 8,37</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>6,58; 9,58</t>
+          <t>5,5; 7,43</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,51</t>
+          <t>3,62</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4,5</t>
+          <t>4,72</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>6,73</t>
+          <t>6,26</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5,24</t>
+          <t>5,82</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>6,31</t>
+          <t>5,82</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>6,42</t>
+          <t>6,6</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>8,52</t>
+          <t>8,47</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>6,74</t>
+          <t>7,61</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>5,27</t>
+          <t>4,98</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>5,67</t>
+          <t>5,86</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>7,82</t>
+          <t>7,58</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>6,17</t>
+          <t>6,95</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,04; 4,27</t>
+          <t>3,35; 4,01</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,06; 4,96</t>
+          <t>4,5; 4,96</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,96; 7,6</t>
+          <t>5,89; 6,68</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,23; 7,1</t>
+          <t>5,05; 6,88</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,61; 7,03</t>
+          <t>5,51; 6,17</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,04; 6,83</t>
+          <t>6,41; 6,83</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,78; 9,3</t>
+          <t>8,14; 8,88</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,72; 8,06</t>
+          <t>7,05; 8,23</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,82; 5,82</t>
+          <t>4,72; 5,26</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>5,36; 5,98</t>
+          <t>5,7; 6,03</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>7,27; 8,37</t>
+          <t>7,29; 7,88</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,38; 7,16</t>
+          <t>6,44; 7,49</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Media</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>3,62</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>4,72</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>6,26</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>5,58</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>5,82</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>6,6</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>8,47</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>7,44</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>4,98</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>5,86</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>7,58</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>6,77</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>3,35; 4,01</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>4,5; 4,96</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>5,89; 6,68</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>4,88; 6,58</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>5,51; 6,17</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>6,41; 6,83</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>8,14; 8,88</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>6,89; 8,04</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>4,72; 5,26</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>5,7; 6,03</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>7,29; 7,88</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>6,28; 7,29</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_orig/Q02D_LAB-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q02D_LAB-Habitat-trans_orig.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Tiempo dedicado de lunes a viernes al cuidado de las personas del hogar que lo necesitan por parte de la persona entrevistada</t>
+          <t>Número medio de horas diarias, de lunes a viernes, que dedica la persona entrevistada a cuidar a las personas del hogar que lo necesitan</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,38; 3,65</t>
+          <t>2,32; 3,51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,12; 5,26</t>
+          <t>4,14; 5,21</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,26; 6,98</t>
+          <t>5,26; 6,87</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,98; 8,62</t>
+          <t>4,99; 8,58</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>4,06; 5,48</t>
+          <t>4,05; 5,47</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,2; 7,13</t>
+          <t>6,15; 7,13</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,13; 8,82</t>
+          <t>7,13; 8,77</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,15; 10,43</t>
+          <t>7,1; 10,27</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,55; 4,55</t>
+          <t>3,54; 4,51</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>5,46; 6,26</t>
+          <t>5,47; 6,22</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>6,52; 7,76</t>
+          <t>6,49; 7,68</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>6,53; 9,12</t>
+          <t>6,54; 8,99</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,28; 4,66</t>
+          <t>3,27; 4,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,56; 5,4</t>
+          <t>4,54; 5,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,65; 5,93</t>
+          <t>4,59; 5,8</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,24; 6,76</t>
+          <t>4,26; 6,78</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,34; 6,7</t>
+          <t>5,32; 6,62</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>6,21; 7,01</t>
+          <t>6,17; 7,06</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,87; 8,05</t>
+          <t>6,91; 8,12</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,4; 8,02</t>
+          <t>6,35; 7,93</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,64; 5,61</t>
+          <t>4,64; 5,62</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>5,63; 6,24</t>
+          <t>5,63; 6,23</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>6,1; 6,99</t>
+          <t>6,1; 7,04</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>5,77; 7,21</t>
+          <t>5,85; 7,27</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,53; 4,91</t>
+          <t>3,49; 4,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,26; 5,15</t>
+          <t>4,24; 5,12</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,83; 8,77</t>
+          <t>6,86; 8,68</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,18; 12,08</t>
+          <t>4,2; 12,24</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,62; 7,22</t>
+          <t>5,63; 7,17</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,38; 7,24</t>
+          <t>6,34; 7,24</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,57; 11,33</t>
+          <t>9,54; 11,44</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,37; 10,53</t>
+          <t>7,18; 10,63</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,99; 6,13</t>
+          <t>4,95; 6,07</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>5,71; 6,39</t>
+          <t>5,7; 6,36</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>8,78; 10,02</t>
+          <t>8,73; 10,07</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,74; 9,97</t>
+          <t>6,73; 9,84</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,04; 4,27</t>
+          <t>3,09; 4,44</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,06; 4,96</t>
+          <t>4,09; 5,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,96; 7,6</t>
+          <t>6,06; 7,71</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,36; 7,82</t>
+          <t>4,42; 7,79</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,61; 7,03</t>
+          <t>5,64; 7,06</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,04; 6,83</t>
+          <t>6,03; 6,82</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>7,78; 9,3</t>
+          <t>7,83; 9,31</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,88; 8,33</t>
+          <t>5,85; 8,4</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,82; 5,82</t>
+          <t>4,82; 5,86</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>5,36; 5,98</t>
+          <t>5,37; 5,97</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>7,27; 8,37</t>
+          <t>7,34; 8,47</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,5; 7,43</t>
+          <t>5,54; 7,54</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,35; 4,01</t>
+          <t>3,34; 4,03</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,5; 4,96</t>
+          <t>4,51; 4,97</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,89; 6,68</t>
+          <t>5,88; 6,67</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,05; 6,88</t>
+          <t>5,07; 6,97</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,51; 6,17</t>
+          <t>5,5; 6,22</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,41; 6,83</t>
+          <t>6,4; 6,82</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>8,14; 8,88</t>
+          <t>8,09; 8,87</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>7,05; 8,23</t>
+          <t>7,06; 8,2</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,72; 5,26</t>
+          <t>4,71; 5,24</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>5,7; 6,03</t>
+          <t>5,7; 6,02</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>7,29; 7,88</t>
+          <t>7,3; 7,85</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>6,44; 7,49</t>
+          <t>6,44; 7,52</t>
         </is>
       </c>
     </row>
